--- a/biology/Médecine/Jean-Sébastien-Eugène_Julia_de_Fontenelle/Jean-Sébastien-Eugène_Julia_de_Fontenelle.xlsx
+++ b/biology/Médecine/Jean-Sébastien-Eugène_Julia_de_Fontenelle/Jean-Sébastien-Eugène_Julia_de_Fontenelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-S%C3%A9bastien-Eug%C3%A8ne_Julia_de_Fontenelle</t>
+          <t>Jean-Sébastien-Eugène_Julia_de_Fontenelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Sébastien-Eugène Julia de Fontenelle est un pharmacien, chimiste et vulgarisateur scientifique français, né le 18 octobre 1780[1] à Narbonne et mort le 8 février 1842. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Sébastien-Eugène Julia de Fontenelle est un pharmacien, chimiste et vulgarisateur scientifique français, né le 18 octobre 1780 à Narbonne et mort le 8 février 1842. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-S%C3%A9bastien-Eug%C3%A8ne_Julia_de_Fontenelle</t>
+          <t>Jean-Sébastien-Eugène_Julia_de_Fontenelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé à Montpellier, il se rend à Barcelone en 1820 pour étudier l'épidémie de fièvre jaune qui y régnait, et est nommé en 1823 médecin en chef de l'hôpital de convalescence de Catalogne. Il est l'un des fondateurs du Journal de Pharmacie et de la Société des Sciences physiques.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-S%C3%A9bastien-Eug%C3%A8ne_Julia_de_Fontenelle</t>
+          <t>Jean-Sébastien-Eugène_Julia_de_Fontenelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Mémoire sur la culture de la soude dans la ci-devant province du Languedoc », Annales de chimie, vol. 49, 1804, p. 267-285.
 la Fièvre jaune de Barcelone, 1820.
